--- a/RegressionTests/Unit_Test_3/aptrans_601597_pass.xlsx
+++ b/RegressionTests/Unit_Test_3/aptrans_601597_pass.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="26">
   <si>
     <t>Forename</t>
   </si>
@@ -72,19 +72,13 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>refno</t>
-  </si>
-  <si>
-    <t>forename</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>avc</t>
+    <t>REFNO</t>
+  </si>
+  <si>
+    <t>FORENAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
   </si>
   <si>
     <t>712727</t>
@@ -1062,16 +1056,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="24"/>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1089,7 +1083,7 @@
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1123,24 +1117,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1304,16 +1298,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="24"/>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1331,7 +1325,7 @@
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1365,24 +1359,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1548,16 +1542,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="24"/>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1575,7 +1569,7 @@
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1609,24 +1603,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1663,22 +1657,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1717,16 +1711,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="24"/>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1744,7 +1738,7 @@
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1778,24 +1772,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1959,16 +1953,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="24"/>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1986,7 +1980,7 @@
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2020,24 +2014,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2201,16 +2195,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="24"/>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2228,7 +2222,7 @@
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2262,24 +2256,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_3/aptrans_601597_pass.xlsx
+++ b/RegressionTests/Unit_Test_3/aptrans_601597_pass.xlsx
@@ -290,10 +290,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -322,7 +322,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -373,11 +373,14 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1173,7 +1176,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1210,16 +1213,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1419,7 +1422,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1456,16 +1459,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1667,7 +1670,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -1704,16 +1707,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1967,7 +1970,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2004,16 +2007,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2213,7 +2216,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2250,16 +2253,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2459,7 +2462,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2496,16 +2499,16 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
     </row>
